--- a/DataUpload/Seed Data/All regions data_sample data to experiment_8 rows.xlsx
+++ b/DataUpload/Seed Data/All regions data_sample data to experiment_8 rows.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
   <si>
     <t>Distributor Name</t>
   </si>
@@ -232,12 +232,6 @@
     <t>Pradeep</t>
   </si>
   <si>
-    <t>Rajkot</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
     <t>ESM ErpId</t>
   </si>
   <si>
@@ -245,6 +239,9 @@
   </si>
   <si>
     <t>NSM Email Id</t>
+  </si>
+  <si>
+    <t>karol Bagh</t>
   </si>
 </sst>
 </file>
@@ -753,7 +750,7 @@
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +786,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
         <v>66</v>
@@ -846,7 +843,7 @@
         <v>55</v>
       </c>
       <c r="V1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W1" t="s">
         <v>56</v>
@@ -873,7 +870,7 @@
         <v>43</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AF1" t="s">
         <v>61</v>
@@ -982,7 +979,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1178,7 +1175,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -1274,7 +1271,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>38</v>
